--- a/xlsx/切萨皮克湾_intext.xlsx
+++ b/xlsx/切萨皮克湾_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_切萨皮克湾</t>
+    <t>政策_政策_美国_切萨皮克湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8F%A3%E6%B9%BE</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E7%9A%AE%E5%85%8B%E7%81%A3%E9%9A%95%E7%9F%B3%E5%9D%91</t>
   </si>
   <si>
-    <t>切薩皮克灣隕石坑</t>
+    <t>切萨皮克湾陨石坑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
